--- a/data/trans_orig/P14B16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FAEB0D-26F7-46E3-A4BB-F11FE3E74B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B037AE35-0E9B-4A3D-91F9-20AF26791767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF9B7C66-B382-4407-A503-A9CEBAC62808}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C2E8DFF-1771-4F66-9DC1-165AB22B4B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="331">
   <si>
     <t>Población cuya alergia crónica le limita en 2012 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -85,16 +85,16 @@
     <t>21,4%</t>
   </si>
   <si>
-    <t>64,34%</t>
+    <t>54,5%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -112,16 +112,16 @@
     <t>78,6%</t>
   </si>
   <si>
-    <t>35,66%</t>
+    <t>45,5%</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,55 +133,55 @@
     <t>20,63%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -190,835 +190,847 @@
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>25,91%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>38,02%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>69,65%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>40,93%</t>
   </si>
   <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>59,07%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5F2CD0-B7A2-47B6-98F6-BE75F3BE7F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBC2C6-0A56-4621-92D0-81B2C536F1D1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2359,13 +2371,13 @@
         <v>130189</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2392,13 @@
         <v>120380</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -2395,13 +2407,13 @@
         <v>178426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -2410,13 +2422,13 @@
         <v>298806</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,7 +2484,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12022DA6-4CBB-4415-8DFC-F7EB9B999BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF3F477-E75F-4B05-BCD9-37BB97CA6608}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2510,7 +2522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2620,10 +2632,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2632,13 +2644,13 @@
         <v>812</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2647,13 +2659,13 @@
         <v>812</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2683,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -2683,10 +2695,10 @@
         <v>4427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2698,10 +2710,10 @@
         <v>6440</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -2772,13 +2784,13 @@
         <v>7717</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -2787,13 +2799,13 @@
         <v>9678</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2802,13 +2814,13 @@
         <v>17396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2835,13 @@
         <v>19657</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -2838,13 +2850,13 @@
         <v>23281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2853,13 +2865,13 @@
         <v>42937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2939,13 @@
         <v>14570</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2942,13 +2954,13 @@
         <v>32807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2957,13 +2969,13 @@
         <v>47377</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2990,13 @@
         <v>31528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -2993,13 +3005,13 @@
         <v>64373</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>91</v>
@@ -3008,13 +3020,13 @@
         <v>95901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3094,13 @@
         <v>5087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3097,13 +3109,13 @@
         <v>14683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3112,13 +3124,13 @@
         <v>19770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3145,13 @@
         <v>21575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -3148,13 +3160,13 @@
         <v>49032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -3163,13 +3175,13 @@
         <v>70606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3249,13 @@
         <v>12559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3252,13 +3264,13 @@
         <v>25514</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -3267,13 +3279,13 @@
         <v>38073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3300,13 @@
         <v>52763</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -3303,13 +3315,13 @@
         <v>56965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -3318,13 +3330,13 @@
         <v>109728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3404,13 @@
         <v>39933</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3407,13 +3419,13 @@
         <v>83494</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>116</v>
@@ -3422,13 +3434,13 @@
         <v>123427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3455,13 @@
         <v>127536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>189</v>
@@ -3458,13 +3470,13 @@
         <v>198077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>310</v>
@@ -3473,13 +3485,13 @@
         <v>325613</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,7 +3547,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE29FD-F64C-473B-8908-350A384ED875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83525FC-E0AD-4C01-9A04-0C74D7756469}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3573,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3680,13 +3692,13 @@
         <v>2749</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3695,13 +3707,13 @@
         <v>3191</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3710,13 +3722,13 @@
         <v>5940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,10 +3743,10 @@
         <v>8137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3746,13 +3758,13 @@
         <v>11606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -3761,13 +3773,13 @@
         <v>19743</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3847,13 @@
         <v>6122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3850,13 +3862,13 @@
         <v>8063</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3865,13 +3877,13 @@
         <v>14185</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3898,13 @@
         <v>41936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>103</v>
@@ -3901,13 +3913,13 @@
         <v>65569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
@@ -3916,13 +3928,13 @@
         <v>107505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +4002,13 @@
         <v>17349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4005,13 +4017,13 @@
         <v>19690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -4020,13 +4032,13 @@
         <v>37039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4053,13 @@
         <v>78274</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>131</v>
@@ -4056,13 +4068,13 @@
         <v>88372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>199</v>
@@ -4071,13 +4083,13 @@
         <v>166645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4157,13 @@
         <v>13404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4160,13 +4172,13 @@
         <v>17358</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4175,13 +4187,13 @@
         <v>30762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4208,13 @@
         <v>73937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -4211,13 +4223,13 @@
         <v>79078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -4226,13 +4238,13 @@
         <v>153015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4312,13 @@
         <v>9488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4315,13 +4327,13 @@
         <v>37646</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4330,13 +4342,13 @@
         <v>47134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4363,13 @@
         <v>75857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -4366,13 +4378,13 @@
         <v>100188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>212</v>
@@ -4381,13 +4393,13 @@
         <v>176045</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4467,13 @@
         <v>49112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -4470,13 +4482,13 @@
         <v>85947</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -4485,13 +4497,13 @@
         <v>135060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4518,13 @@
         <v>278140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>500</v>
@@ -4521,13 +4533,13 @@
         <v>344813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>760</v>
@@ -4536,13 +4548,13 @@
         <v>622953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,7 +4610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B16-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B037AE35-0E9B-4A3D-91F9-20AF26791767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B04517-6EA1-429E-8F1D-EAFA2894ED8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C2E8DFF-1771-4F66-9DC1-165AB22B4B5A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA74894C-66BF-4A5C-8A99-3BEBE8AD1936}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="325">
   <si>
     <t>Población cuya alergia crónica le limita en 2012 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,16 +85,16 @@
     <t>21,4%</t>
   </si>
   <si>
-    <t>54,5%</t>
+    <t>55,33%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -112,190 +112,184 @@
     <t>78,6%</t>
   </si>
   <si>
-    <t>45,5%</t>
+    <t>44,67%</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
   </si>
   <si>
     <t>38,02%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>61,98%</t>
   </si>
   <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>31,67%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>40,81%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>59,19%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -304,79 +298,79 @@
     <t>24,39%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>70,07%</t>
   </si>
   <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>30,12%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>25,65%</t>
+    <t>26,06%</t>
   </si>
   <si>
     <t>35,16%</t>
@@ -385,19 +379,19 @@
     <t>69,31%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>69,88%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
   </si>
   <si>
     <t>69,65%</t>
@@ -406,13 +400,13 @@
     <t>64,84%</t>
   </si>
   <si>
-    <t>74,35%</t>
+    <t>73,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
+    <t>Población cuya alergia crónica le limita en 2016 (Tasa respuesta: 6,49%)</t>
   </si>
   <si>
     <t>0%</t>
@@ -424,13 +418,13 @@
     <t>15,49%</t>
   </si>
   <si>
-    <t>64,44%</t>
+    <t>65,29%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>47,46%</t>
+    <t>47,29%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -439,283 +433,283 @@
     <t>84,51%</t>
   </si>
   <si>
-    <t>35,56%</t>
+    <t>34,71%</t>
   </si>
   <si>
     <t>88,81%</t>
   </si>
   <si>
-    <t>52,54%</t>
+    <t>52,71%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>71,17%</t>
   </si>
   <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
   </si>
   <si>
     <t>33,07%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>66,93%</t>
   </si>
   <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>76,96%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>30,93%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>25,76%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>69,07%</t>
   </si>
   <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
@@ -790,9 +784,6 @@
     <t>11,66%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
     <t>17,85%</t>
   </si>
   <si>
@@ -820,9 +811,6 @@
     <t>82,15%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
     <t>18,14%</t>
   </si>
   <si>
@@ -946,9 +934,6 @@
     <t>20,27%</t>
   </si>
   <si>
-    <t>35,78%</t>
-  </si>
-  <si>
     <t>21,12%</t>
   </si>
   <si>
@@ -968,9 +953,6 @@
   </si>
   <si>
     <t>72,69%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
   </si>
   <si>
     <t>79,73%</t>
@@ -1442,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBC2C6-0A56-4621-92D0-81B2C536F1D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F0C4C0-2CB1-455E-BE8B-18609260FE7F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,10 +2046,10 @@
         <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2064,13 @@
         <v>26981</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -2097,13 +2079,13 @@
         <v>35242</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -2112,13 +2094,13 @@
         <v>62223</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,7 +2156,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2186,13 +2168,13 @@
         <v>11363</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2201,13 +2183,13 @@
         <v>27369</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -2216,13 +2198,13 @@
         <v>38733</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2219,13 @@
         <v>35218</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2252,13 +2234,13 @@
         <v>55469</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -2267,13 +2249,13 @@
         <v>90687</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2323,13 @@
         <v>53300</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -2356,13 +2338,13 @@
         <v>76889</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -2371,13 +2353,13 @@
         <v>130189</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2374,13 @@
         <v>120380</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -2407,13 +2389,13 @@
         <v>178426</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -2422,13 +2404,13 @@
         <v>298806</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2466,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF3F477-E75F-4B05-BCD9-37BB97CA6608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2BB12C-7626-4486-9072-716DD2EF3469}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2522,7 +2504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2632,10 +2614,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2644,13 +2626,13 @@
         <v>812</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2659,13 +2641,13 @@
         <v>812</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,7 +2665,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -2695,10 +2677,10 @@
         <v>4427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2710,10 +2692,10 @@
         <v>6440</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -2784,13 +2766,13 @@
         <v>7717</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -2799,13 +2781,13 @@
         <v>9678</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2814,13 +2796,13 @@
         <v>17396</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2817,13 @@
         <v>19657</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -2850,13 +2832,13 @@
         <v>23281</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2865,13 +2847,13 @@
         <v>42937</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2921,13 @@
         <v>14570</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2954,13 +2936,13 @@
         <v>32807</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2969,13 +2951,13 @@
         <v>47377</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2972,13 @@
         <v>31528</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -3005,13 +2987,13 @@
         <v>64373</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>91</v>
@@ -3020,13 +3002,13 @@
         <v>95901</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3076,13 @@
         <v>5087</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3109,13 +3091,13 @@
         <v>14683</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3124,13 +3106,13 @@
         <v>19770</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3127,13 @@
         <v>21575</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -3160,13 +3142,13 @@
         <v>49032</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -3175,13 +3157,13 @@
         <v>70606</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,7 +3219,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3249,13 +3231,13 @@
         <v>12559</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3264,13 +3246,13 @@
         <v>25514</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -3279,13 +3261,13 @@
         <v>38073</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3282,13 @@
         <v>52763</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -3315,13 +3297,13 @@
         <v>56965</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -3330,13 +3312,13 @@
         <v>109728</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3386,13 @@
         <v>39933</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3419,13 +3401,13 @@
         <v>83494</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>116</v>
@@ -3434,13 +3416,13 @@
         <v>123427</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3437,13 @@
         <v>127536</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>189</v>
@@ -3470,13 +3452,13 @@
         <v>198077</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>310</v>
@@ -3485,13 +3467,13 @@
         <v>325613</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3529,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83525FC-E0AD-4C01-9A04-0C74D7756469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A95FA5-CF59-4967-A127-78AAF2F6B87A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3692,13 +3674,13 @@
         <v>2749</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3707,13 +3689,13 @@
         <v>3191</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3722,13 +3704,13 @@
         <v>5940</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,10 +3725,10 @@
         <v>8137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3758,13 +3740,13 @@
         <v>11606</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -3773,13 +3755,13 @@
         <v>19743</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3829,13 @@
         <v>6122</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3862,13 +3844,13 @@
         <v>8063</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3877,13 +3859,13 @@
         <v>14185</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3880,13 @@
         <v>41936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>103</v>
@@ -3913,13 +3895,13 @@
         <v>65569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
@@ -3928,13 +3910,13 @@
         <v>107505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3984,13 @@
         <v>17349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4017,13 +3999,13 @@
         <v>19690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -4032,13 +4014,13 @@
         <v>37039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4035,13 @@
         <v>78274</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>131</v>
@@ -4068,13 +4050,13 @@
         <v>88372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>199</v>
@@ -4083,13 +4065,13 @@
         <v>166645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4139,13 @@
         <v>13404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4172,13 +4154,13 @@
         <v>17358</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4187,13 +4169,13 @@
         <v>30762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4190,13 @@
         <v>73937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -4223,13 +4205,13 @@
         <v>79078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -4238,13 +4220,13 @@
         <v>153015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4282,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4312,13 +4294,13 @@
         <v>9488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4327,13 +4309,13 @@
         <v>37646</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4342,13 +4324,13 @@
         <v>47134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4345,13 @@
         <v>75857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -4378,13 +4360,13 @@
         <v>100188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>212</v>
@@ -4393,13 +4375,13 @@
         <v>176045</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4449,13 @@
         <v>49112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -4482,13 +4464,13 @@
         <v>85947</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -4497,13 +4479,13 @@
         <v>135060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4500,13 @@
         <v>278140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>500</v>
@@ -4533,13 +4515,13 @@
         <v>344813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>760</v>
@@ -4548,13 +4530,13 @@
         <v>622953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4592,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
